--- a/porosity_data_sample_1_backup.xlsx
+++ b/porosity_data_sample_1_backup.xlsx
@@ -1,127 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\github_repos\projektarbeit_rwth\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A90F446-8C9D-48BB-8DF1-7C3BBF66B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{825761D9-FE51-4821-91F9-4831A7E3A988}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
-  <si>
-    <t>1 1</t>
-  </si>
-  <si>
-    <t>Ebene 1</t>
-  </si>
-  <si>
-    <t>Ebene 2</t>
-  </si>
-  <si>
-    <t>Ebene 3</t>
-  </si>
-  <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>1 3</t>
-  </si>
-  <si>
-    <t>1 4</t>
-  </si>
-  <si>
-    <t>1 5</t>
-  </si>
-  <si>
-    <t>1 6</t>
-  </si>
-  <si>
-    <t>1 7</t>
-  </si>
-  <si>
-    <t>1 8</t>
-  </si>
-  <si>
-    <t>1 9</t>
-  </si>
-  <si>
-    <t>1 10</t>
-  </si>
-  <si>
-    <t>1 11</t>
-  </si>
-  <si>
-    <t>1 12</t>
-  </si>
-  <si>
-    <t>1 13</t>
-  </si>
-  <si>
-    <t>1 14</t>
-  </si>
-  <si>
-    <t>1 15</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="162"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="162"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -144,32 +66,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,227 +496,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65D2C2D-1D26-420B-9174-1E8E88DB240E}">
-  <dimension ref="B1:AT2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>1 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>1 2</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>1 3</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>1 4</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>1 5</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>1 6</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="4" t="n"/>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>1 7</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="4" t="n"/>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>1 8</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="4" t="n"/>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>1 9</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="n"/>
+      <c r="AB1" s="4" t="n"/>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>1 10</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="4" t="n"/>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>1 11</t>
+        </is>
+      </c>
+      <c r="AG1" s="3" t="n"/>
+      <c r="AH1" s="4" t="n"/>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>1 12</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="n"/>
+      <c r="AK1" s="4" t="n"/>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>1 13</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="n"/>
+      <c r="AN1" s="4" t="n"/>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>1 14</t>
+        </is>
+      </c>
+      <c r="AP1" s="3" t="n"/>
+      <c r="AQ1" s="4" t="n"/>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>1 15</t>
+        </is>
+      </c>
+      <c r="AS1" s="3" t="n"/>
+      <c r="AT1" s="4" t="n"/>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AI2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AJ2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AK2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AL2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AM2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AN2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AO2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AP2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AQ2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+      <c r="AR2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 1</t>
+        </is>
+      </c>
+      <c r="AS2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 2</t>
+        </is>
+      </c>
+      <c r="AT2" s="2" t="inlineStr">
+        <is>
+          <t>Ebene 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -710,7 +905,7 @@
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>